--- a/biology/Médecine/Dostarlimab/Dostarlimab.xlsx
+++ b/biology/Médecine/Dostarlimab/Dostarlimab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dostarlimab, vendu sous la marque Jemperli, est un anticorps monoclonal utilisé comme médicament pour le traitement du cancer de l'endomètre[1],[2],[3],[4]. Le dostarlimab bloque le récepteur de mort cellulaire programmée 1 (PD-1)[1],[2],[5].
-Le dostarlimab a été approuvé pour un usage médical aux États-Unis (USA) et dans l'Union européenne (UE) en avril 2021[1],[2],[6],[5],[7],[8]. En France, la Haute Autorité de santé n'a pas recommandé son remboursement[9].
-Les effets secondaires les plus fréquents signalés aux États-Unis sont la fatigue/asthénie, la nausée, la diarrhée, l'anémie et la constipation[1],[2]. Les autres effets secondaires fréquents signalés dans l'UE sont les vomissements, les douleurs articulaires, les démangeaisons, les éruptions cutanées, la fièvre et l'hypothyroïdie (faibles niveaux d'hormones thyroïdiennes).
-Dans une étude portant sur 12 patients atteints d'un cancer colorectal MSI (avec instabilité des microsatellites) de stade II ou III, publiée en 2022, les 12 patients prenant le dostarlimab sont entrés en rémission et le sont restés six à vingt-cinq mois après le traitement, sans avoir besoin d'un autre traitement et avec une bien meilleure tolérance que le traitement standard à base de radiochimiothérapie et de chirurgie[10],[11]. Ces résultats sont encourageants mais restent à confirmer par un essai clinique sur un panel plus large.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dostarlimab, vendu sous la marque Jemperli, est un anticorps monoclonal utilisé comme médicament pour le traitement du cancer de l'endomètre. Le dostarlimab bloque le récepteur de mort cellulaire programmée 1 (PD-1).
+Le dostarlimab a été approuvé pour un usage médical aux États-Unis (USA) et dans l'Union européenne (UE) en avril 2021. En France, la Haute Autorité de santé n'a pas recommandé son remboursement.
+Les effets secondaires les plus fréquents signalés aux États-Unis sont la fatigue/asthénie, la nausée, la diarrhée, l'anémie et la constipation,. Les autres effets secondaires fréquents signalés dans l'UE sont les vomissements, les douleurs articulaires, les démangeaisons, les éruptions cutanées, la fièvre et l'hypothyroïdie (faibles niveaux d'hormones thyroïdiennes).
+Dans une étude portant sur 12 patients atteints d'un cancer colorectal MSI (avec instabilité des microsatellites) de stade II ou III, publiée en 2022, les 12 patients prenant le dostarlimab sont entrés en rémission et le sont restés six à vingt-cinq mois après le traitement, sans avoir besoin d'un autre traitement et avec une bien meilleure tolérance que le traitement standard à base de radiochimiothérapie et de chirurgie,. Ces résultats sont encourageants mais restent à confirmer par un essai clinique sur un panel plus large.
 </t>
         </is>
       </c>
